--- a/tabular/genus/circoviridae/cress-refseqs-side-data.xlsx
+++ b/tabular/genus/circoviridae/cress-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/genus/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892CD16-F934-0240-A4A8-66F3A3D4C38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0EF24-E86D-5E43-8DB4-A01627F5B17F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22480" yWindow="480" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="500" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Po-Circo-like virus 41</t>
   </si>
   <si>
-    <t>CRESS-2</t>
-  </si>
-  <si>
     <t>MK059763</t>
   </si>
   <si>
@@ -197,6 +194,15 @@
   </si>
   <si>
     <t>Brisavirus</t>
+  </si>
+  <si>
+    <t>Circoviridae</t>
+  </si>
+  <si>
+    <t>Kirkoviridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unclassified </t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1330,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
@@ -1401,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
@@ -1427,7 +1433,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
@@ -1453,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -1479,7 +1485,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
@@ -1505,7 +1511,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -1531,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>13</v>
@@ -1557,7 +1563,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
@@ -1583,10 +1589,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>9</v>
@@ -1626,22 +1632,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>7</v>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
@@ -1678,22 +1684,22 @@
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
